--- a/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>13.56637220009465</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16.89189999564238</v>
+        <v>16.89189999564239</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>26.21666690711362</v>
@@ -664,7 +664,7 @@
         <v>15.16818619293563</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.82942144627724</v>
+        <v>15.82942144627726</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.749868865614527</v>
+        <v>9.184203980323415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.396904112335619</v>
+        <v>5.160898928116749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.540233490312639</v>
+        <v>8.867430334380606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.97017251681901</v>
+        <v>17.8976360354112</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.068262954146046</v>
+        <v>8.591978649246773</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.38456291623866</v>
+        <v>7.450180391596476</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.01173967613877</v>
+        <v>16.4414857273726</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.828433967088296</v>
+        <v>9.146647521280924</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.07471533811995</v>
+        <v>9.667885608230554</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.47219930210126</v>
+        <v>26.13886340469281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.65373188104031</v>
+        <v>22.09227759987089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.76817083004025</v>
+        <v>25.00176248775836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33.64024174773584</v>
+        <v>34.14054362510971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.7389642766363</v>
+        <v>25.04427927400635</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.69740259678289</v>
+        <v>22.33594600808674</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>27.77161530830942</v>
+        <v>27.8158502993821</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>21.22331622149001</v>
+        <v>21.02006320551871</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.76492742266764</v>
+        <v>21.45635461960012</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3147877506618733</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3919517410849508</v>
+        <v>0.3919517410849511</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5022851171626703</v>
@@ -769,7 +769,7 @@
         <v>0.3190473095517305</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3329557179715619</v>
+        <v>0.3329557179715624</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1995200054237701</v>
+        <v>0.1870359374883967</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09402311944674127</v>
+        <v>0.1078245427856405</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1575941050238301</v>
+        <v>0.1839745533404775</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2900662847474653</v>
+        <v>0.3140754088707636</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1602031308619974</v>
+        <v>0.1496932918104161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1287870698262336</v>
+        <v>0.1287746762427228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3136294467403213</v>
+        <v>0.3172168690764987</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1708156825674539</v>
+        <v>0.1780293859294458</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1962993786074118</v>
+        <v>0.1870034573645361</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7177481792690795</v>
+        <v>0.6737977870130812</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5899495362455239</v>
+        <v>0.5724592633309814</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6454846282598797</v>
+        <v>0.6514065623889266</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7208996400525162</v>
+        <v>0.7255214004514149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5608870665065413</v>
+        <v>0.5332001866583093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4957091516435436</v>
+        <v>0.4749062336066836</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6349346446860973</v>
+        <v>0.6264263378151281</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4711225427311136</v>
+        <v>0.4713318915178307</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4981673287098539</v>
+        <v>0.4961218459770931</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.551340492387757</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-20.42676403499379</v>
+        <v>-20.4267640349938</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.454075150126425</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5913367378076987</v>
+        <v>0.1871259670973019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.289431818431979</v>
+        <v>4.413664829211382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.86739369055396</v>
+        <v>-13.51951245498898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.700855398050484</v>
+        <v>-0.9738147512650173</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2297592211183593</v>
+        <v>-0.07054836529629531</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.09419859440047</v>
+        <v>-26.40540615511918</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7297083052245744</v>
+        <v>1.265133124390487</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.562711006027117</v>
+        <v>3.687510041469813</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.28335295171954</v>
+        <v>-18.32572134396394</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.8706228907789</v>
+        <v>12.74509803621113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.03487025845926</v>
+        <v>17.56434011632349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.4213255512559397</v>
+        <v>1.096057899463241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.454806737893</v>
+        <v>11.36477170739382</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.43186561644566</v>
+        <v>11.2538568153036</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-14.86230797333594</v>
+        <v>-14.83513045974995</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.519067705339456</v>
+        <v>9.517225516166643</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.34248594445193</v>
+        <v>12.23859565628633</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.139715275869897</v>
+        <v>-9.272751969507375</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.08470962040977909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3116983060176501</v>
+        <v>-0.3116983060176502</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.09695797925672223</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01162400421542103</v>
+        <v>0.004190077225492125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08525740809844966</v>
+        <v>0.08822829890291904</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2779013056910226</v>
+        <v>-0.2685457417202933</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02454498635508019</v>
+        <v>-0.01283535138012131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.004134066058418399</v>
+        <v>-0.0007035889233221715</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3862142687385187</v>
+        <v>-0.3848542929108789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0112227854026808</v>
+        <v>0.01969196023944327</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0604428395536197</v>
+        <v>0.06150427847896899</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3181793200581418</v>
+        <v>-0.3122440252758696</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2738569194233382</v>
+        <v>0.2937361903767496</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3864613529025049</v>
+        <v>0.4048761548759358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0009361461953522904</v>
+        <v>0.02942047182958718</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1687994465459898</v>
+        <v>0.1827509652653471</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1849409969160661</v>
+        <v>0.182496383310246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2347130698985301</v>
+        <v>-0.232725316756537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1751046101178025</v>
+        <v>0.1757227775283178</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2300526958674591</v>
+        <v>0.2249034160787108</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.168855365854663</v>
+        <v>-0.1715035315019762</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-6.463372669908585</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-17.2648930598874</v>
+        <v>-17.26489305988739</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.465031396454991</v>
@@ -1092,7 +1092,7 @@
         <v>0.6350402453568105</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-7.048368171957303</v>
+        <v>-7.048368171957314</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.100319211454702</v>
+        <v>6.408332255378244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9484600276746392</v>
+        <v>0.3803396424851982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.592096784398398</v>
+        <v>-4.173096416150956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.251583076595512</v>
+        <v>-6.450139156328555</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.80941752701155</v>
+        <v>-13.63585032817147</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-24.48556537835666</v>
+        <v>-23.87017729065715</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.111302683447791</v>
+        <v>1.62090539537385</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.675875556738216</v>
+        <v>-4.801251931746343</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.70943685468862</v>
+        <v>-12.62762947500369</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.19469952460332</v>
+        <v>22.19851849324461</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.86262043699494</v>
+        <v>15.6242019596816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.47201899978935</v>
+        <v>11.36998080119496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.804741287874768</v>
+        <v>7.782462249148137</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7270492166589687</v>
+        <v>0.9619903895139577</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.76288101314638</v>
+        <v>-10.44092219771992</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.92994145285494</v>
+        <v>12.50029242439299</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.50947466008427</v>
+        <v>6.367967282614516</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.744472924659231</v>
+        <v>-2.198811634348814</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.09493044440853328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2535772041230749</v>
+        <v>-0.2535772041230747</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.131716989121639</v>
@@ -1197,7 +1197,7 @@
         <v>0.01120498825084483</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1243651613135723</v>
+        <v>-0.1243651613135725</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1471200800724778</v>
+        <v>0.1326788507299949</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02082690813968189</v>
+        <v>0.00802851316256278</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07399928515038189</v>
+        <v>-0.08708777123527277</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1014439594637903</v>
+        <v>-0.08911673250793213</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1956356702673649</v>
+        <v>-0.1954428928030018</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3390631880654943</v>
+        <v>-0.3285760034270147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03529117642729469</v>
+        <v>0.0268255877762549</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07900716900220633</v>
+        <v>-0.0818104860682366</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2001964542898713</v>
+        <v>-0.2108796649570049</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5506266083385523</v>
+        <v>0.5499735137331515</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4010812683907967</v>
+        <v>0.3950186364802278</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2939984054336607</v>
+        <v>0.282600119844124</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1207215687386918</v>
+        <v>0.1204164513355226</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01167201918070098</v>
+        <v>0.01403808704793104</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.166544107303228</v>
+        <v>-0.1581182686710856</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2427010871389679</v>
+        <v>0.2342288319305594</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.102916892033675</v>
+        <v>0.1167971406434211</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03315418393034154</v>
+        <v>-0.04019472735651099</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>4.068060041422605</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.75224086615183</v>
+        <v>-12.75224086615184</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5566351107088469</v>
+        <v>-0.01610695147025875</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6899799063534094</v>
+        <v>-0.5627247595177811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.77237803854864</v>
+        <v>-15.41372564194204</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.759055306869029</v>
+        <v>-4.91861625275419</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.341465727141525</v>
+        <v>-5.176020674126747</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-24.37926225551199</v>
+        <v>-25.03592144462656</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7898125067642883</v>
+        <v>-0.6837252354311891</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.230714863185043</v>
+        <v>-0.7191240195259069</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.80198069415443</v>
+        <v>-18.1903300331276</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.38499951939258</v>
+        <v>14.01991010491858</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.85897797370093</v>
+        <v>14.01968367272848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5344818363374891</v>
+        <v>1.050331516657717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.203334878333104</v>
+        <v>8.555876396280212</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.589777479472634</v>
+        <v>8.464309472264516</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-11.84463620031076</v>
+        <v>-11.53791656194172</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.170181260039515</v>
+        <v>9.490287881038288</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.867463900520296</v>
+        <v>8.897382997115718</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-7.424845121451074</v>
+        <v>-7.109224347377316</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.06683581023648349</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2095117431752559</v>
+        <v>-0.209511743175256</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.007431559723110561</v>
+        <v>-0.0006600421349023644</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02014931571171208</v>
+        <v>-0.01032052416065433</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2871922010575418</v>
+        <v>-0.2849381037573475</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08028504317218835</v>
+        <v>-0.06654718084777032</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0742623163594951</v>
+        <v>-0.07271488580024933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3414802036264133</v>
+        <v>-0.3466348859700392</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01027977112197079</v>
+        <v>-0.01096199486566255</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0218885714886063</v>
+        <v>-0.009520155241231513</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2819050002403005</v>
+        <v>-0.2899019305168662</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3027247314100047</v>
+        <v>0.2878089487618025</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.284943939341813</v>
+        <v>0.2997487267682346</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.009454706559037287</v>
+        <v>0.02105813945785872</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1083088221294532</v>
+        <v>0.1278822270872159</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1275247578005567</v>
+        <v>0.1269985353426263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1813189277543864</v>
+        <v>-0.1721522557079727</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1579640718232588</v>
+        <v>0.1634540303549905</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1515206240929738</v>
+        <v>0.155698731056606</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.126731514690983</v>
+        <v>-0.1256685903818694</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.216024578472147</v>
+        <v>-4.270450208374403</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.673471418703001</v>
+        <v>-6.647252874855665</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-44.7167284243952</v>
+        <v>-44.94448024850987</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.280542400527315</v>
+        <v>7.269017928319698</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.07013122871608</v>
+        <v>-10.42824055044288</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-54.88206556402627</v>
+        <v>-54.9812553606846</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.784844220603101</v>
+        <v>4.840286288331253</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.208845173937635</v>
+        <v>-6.311793769537773</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-47.90999900335235</v>
+        <v>-48.20841257528101</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.7918855430739</v>
+        <v>16.18694960679418</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.91718521794925</v>
+        <v>13.15834113433743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-29.28800786387804</v>
+        <v>-29.875571527399</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.30252065658809</v>
+        <v>24.97464216237011</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.136583760823033</v>
+        <v>7.999361734301427</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-40.20139177338147</v>
+        <v>-39.90237186157729</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.69604889236559</v>
+        <v>18.51776558050651</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.872333934409483</v>
+        <v>7.692235344308955</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-37.06975128255125</v>
+        <v>-36.99636186747621</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.01095997082726364</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.7355630063966567</v>
+        <v>-0.7355630063966566</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06039367345298553</v>
+        <v>-0.07821845193754676</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.120669127153819</v>
+        <v>-0.1232860373809253</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8235064182929338</v>
+        <v>-0.8199410588926463</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1178006444802152</v>
+        <v>0.1030825835322386</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1555465528765305</v>
+        <v>-0.1474921046551975</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7813407990883681</v>
+        <v>-0.7786265284375121</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07852325781311745</v>
+        <v>0.07905043934085024</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09860046974149157</v>
+        <v>-0.1006018296950411</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7789840270268452</v>
+        <v>-0.7840521414607553</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.345676049281104</v>
+        <v>0.3554087034888221</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2869060561836133</v>
+        <v>0.2957765331400768</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.6463710177505555</v>
+        <v>-0.6550350076239034</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4082442594188892</v>
+        <v>0.4162371839555642</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1325594377751533</v>
+        <v>0.1315887618211362</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6630513408046625</v>
+        <v>-0.6603872448412268</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3338260118881201</v>
+        <v>0.3442249237458648</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1256843675278721</v>
+        <v>0.1442317856981062</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6790289426646814</v>
+        <v>-0.6829928962593497</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.563168259542437</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-7.719026114013294</v>
+        <v>-7.719026114013328</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.37276882159343</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.579865274198182</v>
+        <v>3.015237476664421</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.821506076737887</v>
+        <v>-10.48782076312521</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.383263352067681</v>
+        <v>-2.194685393226221</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.781105162209797</v>
+        <v>4.869476391824387</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-10.4788104943883</v>
+        <v>-10.94394800740905</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-14.9254945629359</v>
+        <v>-15.2103829348253</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.940510848176963</v>
+        <v>6.495666585776039</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.364135087252286</v>
+        <v>-8.033678494738963</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.371444541061079</v>
+        <v>-6.274488654982237</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.01577263449635</v>
+        <v>20.31518149782714</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.384544578425538</v>
+        <v>7.466417284072814</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.99851617328314</v>
+        <v>14.61381407891194</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.10372691068591</v>
+        <v>20.09333042825705</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.168630832832683</v>
+        <v>5.380455701909857</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.2709067288617364</v>
+        <v>0.1249660727328392</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>18.49171522155014</v>
+        <v>18.02049660330308</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.817578219799481</v>
+        <v>4.322373333322702</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.623834144973566</v>
+        <v>5.517507570314828</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03971221645995242</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1195940355294674</v>
+        <v>-0.1195940355294679</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2141200904486593</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.06589025039485064</v>
+        <v>0.05510162984243488</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1773903248360306</v>
+        <v>-0.1882069565451359</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.02773318314512193</v>
+        <v>-0.03765419182149624</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0727074356092845</v>
+        <v>0.07159713009308785</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1540530301202934</v>
+        <v>-0.1571735614140425</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2181524978657635</v>
+        <v>-0.2182638296862867</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1126057114592729</v>
+        <v>0.1082799883826738</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1404629822265814</v>
+        <v>-0.1314299851279317</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1045735836722315</v>
+        <v>-0.10423976105091</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4308215327762119</v>
+        <v>0.4396601350163544</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1593198106119358</v>
+        <v>0.1592198177307006</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3219976548222052</v>
+        <v>0.3332422068407906</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3418577871385342</v>
+        <v>0.3393259955587665</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08496810945904869</v>
+        <v>0.088160963582033</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.003198322963524057</v>
+        <v>0.001993936206436157</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3403869591777711</v>
+        <v>0.3349610078284183</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.06877940344953051</v>
+        <v>0.0787838646227471</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.08518037564271988</v>
+        <v>0.1034643176213813</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-2.935234598919267</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-16.9508970107611</v>
+        <v>-16.95089701076109</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.324354161986781</v>
+        <v>6.738891441433818</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.731747443286173</v>
+        <v>-6.195924745726034</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-18.4571977575717</v>
+        <v>-18.42975480888019</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.456078228710445</v>
+        <v>1.651098979075156</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.11091603787442</v>
+        <v>-10.7958696489757</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-26.09139907338662</v>
+        <v>-26.62749942849176</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.731534799045222</v>
+        <v>6.154139633583335</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.758986754901517</v>
+        <v>-6.746864317445529</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-20.84815533985582</v>
+        <v>-20.72385984901551</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.83698877613934</v>
+        <v>18.07071867403412</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.820740488894688</v>
+        <v>4.886579644761892</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-7.046854567672578</v>
+        <v>-7.27010413051195</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.77681437380669</v>
+        <v>12.4646234827199</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.7557698446536034</v>
+        <v>0.5429927088044521</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-16.2215203029558</v>
+        <v>-15.66663697387183</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.28894760243874</v>
+        <v>14.00693828237029</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.9961195066564754</v>
+        <v>1.116343048870161</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-13.21504048125539</v>
+        <v>-13.29016092324517</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.05471077371174385</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3159531748870385</v>
+        <v>-0.3159531748870384</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1354559194561933</v>
+        <v>0.1391983563953479</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1410889670427658</v>
+        <v>-0.1293452826400617</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3814891058914058</v>
+        <v>-0.3728932636319838</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03837974692335328</v>
+        <v>0.02440083223623563</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.158680676146902</v>
+        <v>-0.1676108806282815</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.40883080638806</v>
+        <v>-0.4175189568719259</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1009721625775065</v>
+        <v>0.1106533297445292</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1222001929775415</v>
+        <v>-0.1222545288706783</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3734590870632788</v>
+        <v>-0.3696700873026659</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4196631950974787</v>
+        <v>0.422323642332405</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1118701139501642</v>
+        <v>0.1150792038694663</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.161772674209744</v>
+        <v>-0.1655652528823738</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2160055457601538</v>
+        <v>0.2135119360610121</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01330185328972136</v>
+        <v>0.008970800841473949</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.2731903141231607</v>
+        <v>-0.2684201471031885</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2580919991016133</v>
+        <v>0.2699347606476118</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.02028861739610292</v>
+        <v>0.02018574177072172</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2538942111087728</v>
+        <v>-0.2541098361447827</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-0.04697404663881466</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-18.67995800905973</v>
+        <v>-18.67995800905974</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-4.630238005520604</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.585314862378741</v>
+        <v>-9.182024513253804</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.916450945057012</v>
+        <v>-5.66985588762461</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-23.7314199229119</v>
+        <v>-24.18791317893354</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-9.902990384175189</v>
+        <v>-9.181210420222234</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.183924210057974</v>
+        <v>-7.092062241270458</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-23.23461996262651</v>
+        <v>-23.28030273238218</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.78776479880266</v>
+        <v>-8.120905757894148</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.807207104063649</v>
+        <v>-4.917904762402094</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-22.56834720266252</v>
+        <v>-22.12093495509119</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.871303802035764</v>
+        <v>1.73747890484336</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.675340818496742</v>
+        <v>5.040629854334426</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-13.1692781082538</v>
+        <v>-13.58008656669489</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.2289193792702996</v>
+        <v>0.3606439192934845</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.601335553328109</v>
+        <v>2.613087738620147</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-13.88964335882525</v>
+        <v>-13.67583055618033</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.7583348927869223</v>
+        <v>-0.5551814572735394</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.182550475895053</v>
+        <v>2.31355400266231</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-15.50684287690605</v>
+        <v>-15.05601215571634</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.0009162951146417724</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3643789600888171</v>
+        <v>-0.3643789600888173</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.07316441005961394</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1609693222706106</v>
+        <v>-0.1707086603071736</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.092525662924548</v>
+        <v>-0.1030527447593015</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4397100987114318</v>
+        <v>-0.4506187520656609</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1502018157667935</v>
+        <v>-0.1412873317635852</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.109889643179449</v>
+        <v>-0.1079487780858194</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3550613707307527</v>
+        <v>-0.3534717254737055</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1313035577783525</v>
+        <v>-0.1367720390995521</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.08146269737402229</v>
+        <v>-0.08328914857012616</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.375591735712459</v>
+        <v>-0.3733005086155377</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.03705917030186065</v>
+        <v>0.0358702345567255</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1179854872110166</v>
+        <v>0.1027912374680626</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2695705749898457</v>
+        <v>-0.2791167106470293</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.003826906530053078</v>
+        <v>0.004829152767474614</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.04254843786762202</v>
+        <v>0.04329491675797201</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2299787983639925</v>
+        <v>-0.224915747004248</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.01366066285809468</v>
+        <v>-0.008953667384794474</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.03906750330824488</v>
+        <v>0.04154205445755207</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2760471447755131</v>
+        <v>-0.2724354925021618</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>5.022423697499815</v>
+        <v>4.965936282717059</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.714321147717725</v>
+        <v>1.699405782374669</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-11.21944337387865</v>
+        <v>-11.04555467476576</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.001057604665321</v>
+        <v>3.222508051388046</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.491767824460716</v>
+        <v>-2.329961432593324</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-19.85547479478418</v>
+        <v>-19.60875166373358</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>4.66969604465828</v>
+        <v>4.647047061286851</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.1625064353849596</v>
+        <v>0.277882210926192</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-14.70102862606933</v>
+        <v>-14.93570025575316</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>9.84310986686911</v>
+        <v>10.01464105578231</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.458796573086333</v>
+        <v>6.515415190856776</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-6.083480236000467</v>
+        <v>-5.988349550480778</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.657975686140602</v>
+        <v>7.655317733695666</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.308788306294558</v>
+        <v>2.38807739153328</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-15.30136493998066</v>
+        <v>-15.28726678013895</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>8.042626565397454</v>
+        <v>8.141601907686583</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.678257882746082</v>
+        <v>3.735680458538199</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-11.45084790133414</v>
+        <v>-11.37171926713803</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.001437753069386584</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.2752663456705512</v>
+        <v>-0.2752663456705513</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1146212950111216</v>
@@ -2481,7 +2481,7 @@
         <v>0.03553994123868547</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.2334892272988599</v>
+        <v>-0.23348922729886</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1004158117220018</v>
+        <v>0.1012280889060444</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.03447076939763349</v>
+        <v>0.03461160091901971</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2278509720178458</v>
+        <v>-0.2247948199203177</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.04621749218285342</v>
+        <v>0.0500534820577679</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.03833476633339711</v>
+        <v>-0.03584734016669397</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3048262465709999</v>
+        <v>-0.3045604968389142</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08158261484944762</v>
+        <v>0.08229080880760024</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.00297856986598048</v>
+        <v>0.004879653993353339</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2581626683335816</v>
+        <v>-0.2606111021116708</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2102960488641189</v>
+        <v>0.2144562865448416</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1378139389744396</v>
+        <v>0.1385803120345258</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1296632409043148</v>
+        <v>-0.128569744094597</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1223245645737076</v>
+        <v>0.1224633373376153</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.03713132161391284</v>
+        <v>0.03810747186425718</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.2456279223852343</v>
+        <v>-0.2444991386377564</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1454668958277239</v>
+        <v>0.1479284492327655</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.06667627271734433</v>
+        <v>0.06788385862797776</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.2062874663195866</v>
+        <v>-0.2057410087446001</v>
       </c>
     </row>
     <row r="58">
